--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0001</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11768,7 +11768,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -17598,7 +17598,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -17764,7 +17764,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -19197,7 +19197,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -19367,7 +19367,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -19452,7 +19452,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -19622,7 +19622,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -20136,7 +20136,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -20225,7 +20225,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -20310,7 +20310,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -21383,7 +21383,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -21634,7 +21634,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -22444,7 +22444,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -22687,7 +22687,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -23011,7 +23011,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -23335,7 +23335,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -23578,7 +23578,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -23659,7 +23659,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -23740,7 +23740,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -23983,7 +23983,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -24064,7 +24064,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -24226,7 +24226,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -24311,7 +24311,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -24392,7 +24392,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -24635,7 +24635,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -24797,7 +24797,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -24959,7 +24959,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -25040,7 +25040,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -25283,7 +25283,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -25445,7 +25445,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -26036,7 +26036,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -26376,7 +26376,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -26542,7 +26542,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X334"/>
+  <dimension ref="A1:W334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,11 +549,6 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Entry By</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -663,7 +658,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -757,7 +751,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -851,7 +844,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -945,7 +937,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1039,7 +1030,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1133,7 +1123,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1227,7 +1216,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1309,7 +1297,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1395,7 +1382,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1481,7 +1467,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1567,7 +1552,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1649,7 +1633,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1743,7 +1726,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1849,7 +1831,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1943,7 +1924,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2029,7 +2009,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2139,7 +2118,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2249,7 +2227,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2359,7 +2336,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2449,7 +2425,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2531,7 +2506,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2617,7 +2591,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2703,7 +2676,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2793,7 +2765,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2883,7 +2854,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2973,7 +2943,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3063,7 +3032,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3173,7 +3141,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3267,7 +3234,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3361,7 +3327,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3451,7 +3416,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3537,7 +3501,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3623,7 +3586,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3713,7 +3675,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3807,7 +3768,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3893,7 +3853,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4003,7 +3962,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4097,7 +4055,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4191,7 +4148,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4285,7 +4241,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4371,7 +4326,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4477,7 +4431,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4571,7 +4524,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4661,7 +4613,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4747,7 +4698,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4829,7 +4779,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4939,7 +4888,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5049,7 +4997,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5159,7 +5106,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5265,7 +5211,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5375,7 +5320,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5481,7 +5425,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5587,7 +5530,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5693,7 +5635,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5799,7 +5740,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5909,7 +5849,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6015,7 +5954,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6121,7 +6059,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6227,7 +6164,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6313,7 +6249,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6399,7 +6334,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6493,7 +6427,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6583,7 +6516,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6693,7 +6625,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6787,7 +6718,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6873,7 +6803,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6963,7 +6892,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7053,7 +6981,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7159,7 +7086,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7249,7 +7175,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7335,7 +7260,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7429,7 +7353,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7519,7 +7442,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7613,7 +7535,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7707,7 +7628,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7793,7 +7713,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7887,7 +7806,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7977,7 +7895,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8063,7 +7980,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8157,7 +8073,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8247,7 +8162,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8341,7 +8255,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8435,7 +8348,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8521,7 +8433,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8615,7 +8526,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8709,7 +8619,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8795,7 +8704,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8881,7 +8789,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8975,7 +8882,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9065,7 +8971,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9171,7 +9076,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9277,7 +9181,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9383,7 +9286,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9493,7 +9395,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9579,7 +9480,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9665,7 +9565,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9755,7 +9654,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9849,7 +9747,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9943,7 +9840,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10029,7 +9925,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10115,7 +10010,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10201,7 +10095,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10311,7 +10204,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10393,7 +10285,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10487,7 +10378,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10597,7 +10487,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10691,7 +10580,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10785,7 +10673,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10871,7 +10758,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10981,7 +10867,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11087,7 +10972,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11197,7 +11081,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11303,7 +11186,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11393,7 +11275,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11483,7 +11364,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11577,7 +11457,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11683,7 +11562,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11773,7 +11651,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11867,7 +11744,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11961,7 +11837,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12051,7 +11926,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12145,7 +12019,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12239,7 +12112,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12333,7 +12205,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12419,7 +12290,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12513,7 +12383,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12603,7 +12472,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12693,7 +12561,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12783,7 +12650,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12877,7 +12743,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12971,7 +12836,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13061,7 +12925,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13155,7 +13018,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13249,7 +13111,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13343,7 +13204,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13429,7 +13289,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13523,7 +13382,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13617,7 +13475,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13711,7 +13568,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13801,7 +13657,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13891,7 +13746,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13985,7 +13839,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14079,7 +13932,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14161,7 +14013,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -14251,7 +14102,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14345,7 +14195,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14439,7 +14288,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14521,7 +14369,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14615,7 +14462,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14705,7 +14551,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14787,7 +14632,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14869,7 +14713,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14951,7 +14794,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15033,7 +14875,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15115,7 +14956,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15197,7 +15037,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15279,7 +15118,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15361,7 +15199,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15443,7 +15280,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15525,7 +15361,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15607,7 +15442,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -15689,7 +15523,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15771,7 +15604,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15853,7 +15685,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15935,7 +15766,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16017,7 +15847,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16099,7 +15928,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16182,7 +16010,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16268,7 +16095,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16350,7 +16176,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16436,7 +16261,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16522,7 +16346,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16608,7 +16431,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16694,7 +16516,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16776,7 +16597,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -16858,7 +16678,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16940,7 +16759,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17022,7 +16840,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17108,7 +16925,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17190,7 +17006,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17272,7 +17087,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17354,7 +17168,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17437,7 +17250,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17519,7 +17331,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -17601,7 +17412,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17683,7 +17493,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17765,7 +17574,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -17847,7 +17655,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -17933,7 +17740,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18019,7 +17825,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18101,7 +17906,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18187,7 +17991,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18273,7 +18076,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18359,7 +18161,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -18441,7 +18242,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -18523,7 +18323,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18609,7 +18408,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18695,7 +18493,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -18781,7 +18578,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -18867,7 +18663,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -18953,7 +18748,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19039,7 +18833,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19125,7 +18918,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -19211,7 +19003,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -19297,7 +19088,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -19383,7 +19173,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -19469,7 +19258,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -19555,7 +19343,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19641,7 +19428,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -19727,7 +19513,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -19813,7 +19598,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -19899,7 +19683,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -19985,7 +19768,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -20071,7 +19853,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -20157,7 +19938,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -20243,7 +20023,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -20333,7 +20112,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -20423,7 +20201,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -20509,7 +20286,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -20595,7 +20371,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -20677,7 +20452,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -20759,7 +20533,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -20845,7 +20618,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -20931,7 +20703,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -21017,7 +20788,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -21103,7 +20873,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -21185,7 +20954,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -21267,7 +21035,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -21349,7 +21116,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -21431,7 +21197,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -21513,7 +21278,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -21595,7 +21359,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -21677,7 +21440,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -21763,7 +21525,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -21849,7 +21610,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -21931,7 +21691,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -22013,7 +21772,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -22095,7 +21853,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -22177,7 +21934,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -22259,7 +22015,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -22341,7 +22096,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -22423,7 +22177,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -22505,7 +22258,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -22587,7 +22339,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -22669,7 +22420,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -22751,7 +22501,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -22833,7 +22582,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -22915,7 +22663,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -22997,7 +22744,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -23079,7 +22825,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -23161,7 +22906,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -23243,7 +22987,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -23325,7 +23068,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -23407,7 +23149,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -23489,7 +23230,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -23571,7 +23311,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -23653,7 +23392,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -23735,7 +23473,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -23817,7 +23554,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -23899,7 +23635,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -23981,7 +23716,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -24063,7 +23797,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -24145,7 +23878,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -24227,7 +23959,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -24309,7 +24040,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -24391,7 +24121,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -24473,7 +24202,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -24559,7 +24287,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -24641,7 +24368,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -24723,7 +24449,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -24805,7 +24530,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -24887,7 +24611,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -24969,7 +24692,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -25051,7 +24773,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -25133,7 +24854,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -25215,7 +24935,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -25297,7 +25016,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -25379,7 +25097,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -25461,7 +25178,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -25543,7 +25259,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -25625,7 +25340,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -25707,7 +25421,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -25793,7 +25506,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -25879,7 +25591,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -25965,7 +25676,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -26047,7 +25757,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -26133,7 +25842,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -26219,7 +25927,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -26305,7 +26012,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -26391,7 +26097,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -26477,7 +26182,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -26563,7 +26267,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -26649,7 +26352,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -26735,7 +26437,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -26817,7 +26518,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -26899,7 +26599,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -26981,7 +26680,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -27063,7 +26761,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -27145,7 +26842,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -27227,7 +26923,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -27309,7 +27004,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -27391,7 +27085,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -27473,7 +27166,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -27555,7 +27247,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -27637,7 +27328,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -27719,7 +27409,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -27801,7 +27490,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -27883,7 +27571,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -27965,7 +27652,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -28047,7 +27733,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -28129,7 +27814,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -28211,7 +27895,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -28293,7 +27976,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -28375,7 +28057,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -28457,7 +28138,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -28539,7 +28219,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -28621,7 +28300,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -28703,7 +28381,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -28785,7 +28462,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -28867,7 +28543,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -28949,7 +28624,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -29031,7 +28705,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -29113,7 +28786,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -29195,7 +28867,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -29277,7 +28948,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -29359,7 +29029,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -29441,7 +29110,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -29523,7 +29191,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -29605,7 +29272,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -29687,7 +29353,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -29769,7 +29434,6 @@
           <t>dfsdaf</t>
         </is>
       </c>
-      <c r="X332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -29851,7 +29515,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -29933,11 +29596,6 @@
           <t>HQ</t>
         </is>
       </c>
-      <c r="X334" t="inlineStr">
-        <is>
-          <t>lipo</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0017</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0032</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0033</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0034</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0035</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0036</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0038</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0039</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0040</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0041</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0043</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0044</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0045</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0046</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0049</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0051</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0077</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0094</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0096</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0097</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0098</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0099</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0100</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0101</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0102</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0103</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0104</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0105</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0107</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0108</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0109</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0110</t>
+          <t>FRC-HQ-SLM-F-18-0001</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0112</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11768,7 +11768,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0126</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0127</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0128</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-HQ-SLM-T-20-0001</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0134</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0135</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0136</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0137</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0138</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0139</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0140</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0141</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0142</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0145</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0146</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0147</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0148</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0149</t>
+          <t>FRC-HQ-SLM-F-21-0001</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0150</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0152</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0153</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0154</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0155</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0156</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0157</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0158</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0159</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0160</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0161</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0162</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0163</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0164</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0165</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0166</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0167</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0168</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0169</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0170</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0171</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0172</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0173</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0174</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0175</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0176</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0177</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0178</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0179</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0180</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0181</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0182</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0183</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0184</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0185</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0186</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0187</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0188</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -17598,7 +17598,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0189</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0190</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -17764,7 +17764,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0191</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0192</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0193</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0194</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0195</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0196</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0197</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0198</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0199</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0200</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0201</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0202</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0203</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0204</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0205</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0206</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0207</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -19197,7 +19197,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0208</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0209</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -19367,7 +19367,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0210</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -19452,7 +19452,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0211</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0212</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -19622,7 +19622,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0213</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0214</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0215</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0216</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0217</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0218</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -20136,7 +20136,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0219</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -20225,7 +20225,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0220</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -20310,7 +20310,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0221</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0222</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0223</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0224</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0225</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0226</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0227</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0228</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0229</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0230</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0231</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0232</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0233</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -21383,7 +21383,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0234</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0235</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0236</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -21634,7 +21634,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0237</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0238</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0239</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0240</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0241</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0242</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0243</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0244</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0245</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0246</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -22444,7 +22444,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0247</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0248</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0249</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -22687,7 +22687,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0250</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0251</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0252</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0253</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -23011,7 +23011,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0254</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0255</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0256</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0257</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -23335,7 +23335,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0258</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0259</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0260</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -23578,7 +23578,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0261</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -23659,7 +23659,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0262</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -23740,7 +23740,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0263</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0264</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0265</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -23983,7 +23983,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0266</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -24064,7 +24064,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0267</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0268</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -24226,7 +24226,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0269</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -24311,7 +24311,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0270</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -24392,7 +24392,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0271</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0272</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0273</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -24635,7 +24635,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0274</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0275</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -24797,7 +24797,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0276</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0277</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -24959,7 +24959,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0278</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -25040,7 +25040,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0279</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0280</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0281</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -25283,7 +25283,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0282</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0283</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -25445,7 +25445,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0284</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0285</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0286</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0287</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0288</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0289</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0290</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -26036,7 +26036,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0291</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0292</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0293</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0294</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -26376,7 +26376,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0295</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0296</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -26542,7 +26542,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0297</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0298</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0299</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0300</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0301</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -26947,7 +26947,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -27109,7 +27109,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -27190,7 +27190,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -27433,7 +27433,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -27757,7 +27757,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -27919,7 +27919,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -28000,7 +28000,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -28081,7 +28081,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -28243,7 +28243,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -28405,7 +28405,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -28567,7 +28567,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -28729,7 +28729,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -28810,7 +28810,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -28891,7 +28891,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -29134,7 +29134,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -29215,7 +29215,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -29377,7 +29377,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -29458,7 +29458,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0000</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -29539,7 +29539,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0000</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0009</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0010</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-HQ-SLM-C-17-0011</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0012</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0013</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0014</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0015</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0017</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0018</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0020</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0021</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0022</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0023</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0026</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0027</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0028</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0029</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0030</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0031</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0032</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0033</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0034</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0035</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0036</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0037</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0038</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0039</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0040</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0041</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0042</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0043</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0044</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-HQ-SLM-T-17-0045</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-HQ-SLM-T-17-0046</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0047</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0048</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0049</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0050</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-HQ-SLM-O-17-0051</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0052</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-HQ-SLM-F-17-0053</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0054</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0055</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0056</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0057</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0058</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0059</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0060</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0061</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0062</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0063</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0064</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0065</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0066</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0067</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0068</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0069</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0070</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0071</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0072</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0073</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0074</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0075</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0076</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0077</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0078</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0079</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0080</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0081</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0082</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0083</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0084</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0085</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0086</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0087</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0088</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0089</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-HQ-SLM-C-18-0090</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0091</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0092</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0093</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0094</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-HQ-SLM-F-18-0095</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-HQ-SLM-O-18-0096</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-HQ-SLM-T-18-0097</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-HQ-SLM-M-18-0098</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-HQ-SLM-M-18-0099</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0100</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0101</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0102</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0103</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0104</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0105</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0106</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0107</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0108</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-HQ-SLM-O-18-0109</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0001</t>
+          <t>FRC-HQ-SLM-F-18-0110</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0111</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0112</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0113</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0114</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0115</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0116</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0117</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0118</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0119</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11768,7 +11768,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-HQ-SLM-O-19-0120</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0121</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0122</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0123</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0124</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-HQ-SLM-C-19-0125</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0126</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0127</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-HQ-SLM-F-19-0128</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0129</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0130</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0131</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0132</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0133</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0134</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0135</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0136</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0137</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0138</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0139</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13592,7 +13592,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-HQ-SLM-F-20-0140</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0141</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-HQ-SLM-C-20-0142</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0143</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0144</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0145</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0146</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0147</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-HQ-SLM-M-21-0148</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0001</t>
+          <t>FRC-HQ-SLM-F-21-0149</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0150</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0152</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0153</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0154</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0155</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0156</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0157</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0158</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0159</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -15223,7 +15223,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0160</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-HQ-SLM-C-21-0161</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0162</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0163</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0164</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -15628,7 +15628,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0165</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0166</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0167</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0168</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0169</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0170</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0171</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-HQ-SLM-I-21-0172</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0173</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0174</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0175</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0176</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0177</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0178</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0179</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0180</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0181</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0182</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0183</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0184</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0185</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0186</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0187</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0188</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -17598,7 +17598,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0189</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0190</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -17764,7 +17764,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0191</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0192</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0193</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0194</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0195</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0196</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-HQ-SLM-S-21-0197</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-HQ-SLM-E-21-0198</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-HQ-SLM-E-21-0199</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0200</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0201</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0202</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0203</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0204</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0205</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0206</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0207</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -19197,7 +19197,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0208</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0209</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -19367,7 +19367,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0210</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -19452,7 +19452,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0211</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0212</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -19622,7 +19622,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0213</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0214</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0215</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0216</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0217</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0218</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -20136,7 +20136,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0219</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -20225,7 +20225,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0220</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -20310,7 +20310,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0221</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0222</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0223</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0224</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0225</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0226</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0227</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0228</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0229</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0230</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0231</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0232</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0233</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -21383,7 +21383,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0234</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0235</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-HQ-SLM-E-21-0236</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -21634,7 +21634,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0237</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0238</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0239</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0240</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-HQ-SLM-P-21-0241</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0242</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0243</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0244</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0245</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0246</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -22444,7 +22444,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0247</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0248</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0249</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -22687,7 +22687,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0250</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0251</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0252</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0253</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -23011,7 +23011,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0254</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0255</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0256</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0257</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -23335,7 +23335,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0258</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0259</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0260</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -23578,7 +23578,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0261</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -23659,7 +23659,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0262</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -23740,7 +23740,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0263</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0264</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0265</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -23983,7 +23983,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0266</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -24064,7 +24064,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0267</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0268</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -24226,7 +24226,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0269</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -24311,7 +24311,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0270</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -24392,7 +24392,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0271</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0272</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0273</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -24635,7 +24635,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-HQ-SLM-I-21-0274</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0275</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
@@ -24797,7 +24797,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0276</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0277</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -24959,7 +24959,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0278</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -25040,7 +25040,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0279</t>
         </is>
       </c>
       <c r="F279" t="inlineStr"/>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0280</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0281</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
@@ -25283,7 +25283,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0282</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0283</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -25445,7 +25445,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0284</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0285</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0286</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0287</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0288</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0289</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0290</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -26036,7 +26036,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0291</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -26121,7 +26121,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0292</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0293</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0294</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -26376,7 +26376,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0295</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0296</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -26542,7 +26542,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0297</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0298</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-HQ-SLM-F-21-0299</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0300</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0301</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -26947,7 +26947,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0001</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0001</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -27109,7 +27109,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -27190,7 +27190,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0000</t>
+          <t>FRC-HQ-SLM-M-23-0002</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -27433,7 +27433,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0000</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0000</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0006</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0000</t>
+          <t>FRC-HQ-SLM-O-19-0006</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -27757,7 +27757,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0006</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0000</t>
+          <t>FRC-HQ-SLM-F-23-0006</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -27919,7 +27919,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0000</t>
+          <t>FRC-HQ-SLM-T-23-0006</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -28000,7 +28000,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0000</t>
+          <t>FRC-HQ-SLM-T-23-0006</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -28081,7 +28081,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0000</t>
+          <t>FRC-HQ-SLM-E-23-0006</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0000</t>
+          <t>FRC-HQ-SLM-E-23-0006</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -28243,7 +28243,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0000</t>
+          <t>FRC-HQ-SLM-E-23-0006</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0000</t>
+          <t>FRC-HQ-SLM-C-22-0006</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -28405,7 +28405,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0000</t>
+          <t>FRC-HQ-SLM-C-22-0006</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -28567,7 +28567,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -28648,7 +28648,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -28729,7 +28729,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -28810,7 +28810,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -28891,7 +28891,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -29134,7 +29134,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -29215,7 +29215,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -29377,7 +29377,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0000</t>
+          <t>FRC-HQ-SLM-C-23-0001</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -29458,7 +29458,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0000</t>
+          <t>FRC-HQ-SLM-T-20-0001</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -29539,7 +29539,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0000</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/afar_project/csv_path/excel_files/asset_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_register.xlsx
@@ -2520,7 +2520,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
